--- a/doc/MMU.xlsx
+++ b/doc/MMU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzp\project\Frodo-Scloud\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EB54F0-0480-4AF8-82B8-C1530AF7EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FB32F8-0727-4F37-9F97-728198AEF456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Frodo-640</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,47 +51,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无稀疏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有稀疏带Fifo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>912(-0.85%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1388(-1.02%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>561.12(-13.14%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1905(-1.39%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>828(-13.01%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1390(-17.25%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无Fifo n=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无Fifo n=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_lanes=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_lanes=1(不使用稀疏)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>790.28(-5.92%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1202.98(-7.61%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1582.18(-10.31%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>295.32(-13.65%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>431.98(-14.29%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>652.52(-15.26%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_lanes=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_lanes=2(不使用稀疏)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>872.36(-0.87%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1328.12(-1.03%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1820.44(-1.49%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>371.88(-2.14%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>548.26(-2.10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>819.48(-2.44%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_lanes=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,18 +449,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:H10"/>
+  <dimension ref="B5:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -448,118 +486,144 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>840</v>
+      </c>
+      <c r="D7">
+        <v>1302</v>
+      </c>
+      <c r="E7">
+        <v>1764</v>
+      </c>
+      <c r="F7">
+        <v>342</v>
+      </c>
+      <c r="G7">
+        <v>504</v>
+      </c>
+      <c r="H7">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>880</v>
+      </c>
+      <c r="D9">
+        <v>1342</v>
+      </c>
+      <c r="E9">
+        <v>1536</v>
+      </c>
+      <c r="F9">
+        <v>380</v>
+      </c>
+      <c r="G9">
+        <v>560</v>
+      </c>
+      <c r="H9">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>720</v>
+      </c>
+      <c r="D10">
+        <v>1098</v>
+      </c>
+      <c r="E10">
+        <v>1512</v>
+      </c>
+      <c r="F10">
+        <v>375</v>
+      </c>
+      <c r="G10">
+        <v>560</v>
+      </c>
+      <c r="H10">
+        <v>840</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>920</v>
-      </c>
-      <c r="D6">
-        <v>1403</v>
-      </c>
-      <c r="E6">
-        <v>1932</v>
-      </c>
-      <c r="F6">
-        <v>646</v>
-      </c>
-      <c r="G6">
-        <v>952</v>
-      </c>
-      <c r="H6">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>960</v>
-      </c>
-      <c r="D8">
-        <v>1464</v>
-      </c>
-      <c r="E8">
-        <v>2016</v>
-      </c>
-      <c r="F8">
-        <v>600</v>
-      </c>
-      <c r="G8">
-        <v>896</v>
-      </c>
-      <c r="H8">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>648</v>
-      </c>
-      <c r="D9">
-        <v>984</v>
-      </c>
-      <c r="E9">
-        <v>1344</v>
-      </c>
-      <c r="F9">
-        <v>400</v>
-      </c>
-      <c r="G9">
-        <v>600</v>
-      </c>
-      <c r="H9">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>903</v>
-      </c>
-      <c r="D10">
-        <v>1115</v>
-      </c>
-      <c r="E10">
+      <c r="C11">
+        <v>904</v>
+      </c>
+      <c r="D11">
+        <v>1116</v>
+      </c>
+      <c r="E11">
         <v>1536</v>
       </c>
-      <c r="F10">
-        <v>685</v>
-      </c>
-      <c r="G10">
+      <c r="F11">
+        <v>688</v>
+      </c>
+      <c r="G11">
         <v>1024</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>1280</v>
       </c>
     </row>
